--- a/medicine/Enfance/Jacques_Mazeau/Jacques_Mazeau.xlsx
+++ b/medicine/Enfance/Jacques_Mazeau/Jacques_Mazeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Mazeau, né le 19 décembre 1949[1] à Paris, est un écrivain et journaliste français.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Mazeau, né le 19 décembre 1949 à Paris, est un écrivain et journaliste français.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parallèlement à son activité de romancier, Jacques Mazeau est journaliste notamment au Quotidien de Paris, Banco, Grand Public, Atlas, Le journal de l'Hôtellerie[réf. souhaitée].
 De 1980 à 1990, il est directeur des publications de l'Agence nationale pour la formation professionnelle des adultes (AFPA)[réf. souhaitée]. En 2003 et 2004, il est chroniqueur à Radio Monte-Carlo dans les « Grandes Gueules »[réf. souhaitée].
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Ferme d'en bas, Balland, 1985
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Ferme d'en bas, Balland, 1985
 Réédition, Le Livre de poche no 6579, 1989
 Réédition, Éditions Hors Commerce en 2001
 Réédition, Borée, Terre de poche, 2006
@@ -558,7 +577,7 @@
 Réédition, Le Livre de poche no 6656, 1989
 Réédité aux  Éditions Hors Commerce. 1999
 Réédition, Borée, Terre de poche no 56, 2008
-Sur la piste des diamants, de François Thiéry (avec la participation de Jacques Mazeau), ill Marianne Villebrun et Nicolas Vial, Magnard, collection C'est toi, août 1988[2].
+Sur la piste des diamants, de François Thiéry (avec la participation de Jacques Mazeau), ill Marianne Villebrun et Nicolas Vial, Magnard, collection C'est toi, août 1988.
 La Gitane de Formentera, Ramsay, 1989
 De l'autre côté de la rivière, Balland, 1990
 Réédition, Pocket no 3577, 1991
@@ -569,7 +588,7 @@
 Réédition, Pocket no 4473, 1997
 Réédition, Borée, Terre de poche, 2010
 Réédition aux Éditions L'Archipel, 2010
-Adapté par Serge Meynard sous le titre Le Cri du corbeau pour FR3 en 1997[3].
+Adapté par Serge Meynard sous le titre Le Cri du corbeau pour FR3 en 1997.
 Nuremberg 46, Gallimard, Jeunesse, 1995
 La Dame blanche, Plon, 1996
 La Vieille Dame et l'Enfant, France Loisirs, 1997
@@ -577,17 +596,17 @@
 La Malédiction de Bellary, Plon, 1999
 Adapté en BD chez Glénat (3 tomes)
 Le Pont de l’aigle, Éditions Jean-Claude Lattès, 2000
-Adapté en téléfilm sous ce même titre Le Pont de l'aigle pour FR3, réalisé par Bertrand Van Effenterre[4]
+Adapté en téléfilm sous ce même titre Le Pont de l'aigle pour FR3, réalisé par Bertrand Van Effenterre
 Le Bâtard et la Colombe, Plon, 2000
 Réédition, Glénat, 2006
-Jusqu’à la mer, Seuil, 2000 (prix Chronos)[5]
+Jusqu’à la mer, Seuil, 2000 (prix Chronos)
 Terre de sang, Plon, 2001
 Réédition, Borée, Terre de poche, 2012
 L'Or des Maures, Éditions Jean-Claude Lattès, 2002
 Réédition Le Masque no 2517, 2009
 Adapté en une mini-série de 12 épisodes intitulée Disparitions pour FR3
-Cette série télévisée Disparitions inspirée par le roman L'Or des Maures inspire elle-même une bande dessinée de Didier Convard qui parait quasi simultanément à la diffusion des épisodes télé[6]. Le script original de Disparitions est donc décliné en trois adaptations complémentaires pour toucher un plus vaste public : téléfilm, bande dessinée et roman (réédition)[7]
-Anna et le père Noël France Loisirs, 2003[8]
+Cette série télévisée Disparitions inspirée par le roman L'Or des Maures inspire elle-même une bande dessinée de Didier Convard qui parait quasi simultanément à la diffusion des épisodes télé. Le script original de Disparitions est donc décliné en trois adaptations complémentaires pour toucher un plus vaste public : téléfilm, bande dessinée et roman (réédition)
+Anna et le père Noël France Loisirs, 2003
 Mensonges, Plon, 2004
 Réédition, Borée, Terre de poche no 56, 2005
 La Ferme de l’enfer, Archipel, 2008
@@ -598,11 +617,45 @@
 Borée, Terre de poche, 2013
 Brumes de sang, Presses de la Cité, 2012
 Le Retour des hirondelle, Archipel, 2013
-D’amour et de cendres, L’Archipel, 2018, 336 pages[9],[10]
-La baie des Trépassés, L’Archipel, 2020[11],[12]
-J'ai entendu le chant des morts, L'Archipel, 2023[13]
-Documents
-Les Destins tragiques du cinéma, PAC, 1982
+D’amour et de cendres, L’Archipel, 2018, 336 pages,
+La baie des Trépassés, L’Archipel, 2020,
+J'ai entendu le chant des morts, L'Archipel, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Mazeau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Mazeau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Destins tragiques du cinéma, PAC, 1982
 Le Guide pratique des Radios-libres, Édition Radio. 1982
 Les Acteurs contemporains français, P.U.F. « Que Sais-je ? » no 887, 1982
 Humphrey Bogart, PAC, 1983
@@ -628,19 +681,53 @@
 La Sécurité : priorité à gauche, Plon, 2003 (avec Daniel Vaillant)
 La droite libérale n’a pas de sens, Éditions Hors collection, 2004
 Les Destins tragiques d’Hollywood, L'Archipel, 2005
-Merci madame Royal, Éditions Hors collection, 2007
-Bande dessinée
-La Malédiction de Bellary (scénario), avec Guillaume Martinez (dessin), Glénat, coll.« Vécu » :
-Le Fils du Diable, 2002  (ISBN 2723436756)[14]
+Merci madame Royal, Éditions Hors collection, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Mazeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Mazeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Malédiction de Bellary (scénario), avec Guillaume Martinez (dessin), Glénat, coll.« Vécu » :
+Le Fils du Diable, 2002  (ISBN 2723436756)
 La Dague et le Poignard, 2003  (ISBN 2723441245).
 Le Bâtard et la Colombe, 2006  (ISBN 272344659X).
 Disparitions : Retour aux sources, Glénat, co-scénario avec Didier Convard d'après la mini-série télé homonyme :
 Retour aux sources I, 2008 avec Pierre Wachs (dessin)  (ISBN 9782723463737)
- Retour aux sources II, 2008 avec Ersel (dessin)  (ISBN 9782723464970)[15]
+ Retour aux sources II, 2008 avec Ersel (dessin)  (ISBN 9782723464970)
 Retour aux sources III, 2009  avec Ersel (dessin)  (ISBN 9782723466035)
 Retour aux sources IV, 2010 avec Pierre Wachs (dessin)  (ISBN 9782723466042)
 L'Affaire Oil t. 1 : Engrenages (scénario), avec Mirko Colak (dessin), Glénat, coll. « Investigations », 2008  (ISBN 9782723460019).
-La Druzina : 1914-1918 (scénario), avec Brada (dessin), Glénat, 2015  (ISBN 9782723463744)[16],[17].</t>
+La Druzina : 1914-1918 (scénario), avec Brada (dessin), Glénat, 2015  (ISBN 9782723463744),.</t>
         </is>
       </c>
     </row>
